--- a/biology/Zoologie/Eunica_amelia/Eunica_amelia.xlsx
+++ b/biology/Zoologie/Eunica_amelia/Eunica_amelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eunica amelia est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae, tribu des Epicaliini, du genre Eunica .
 </t>
@@ -511,19 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica amelia a été décrite par le naturaliste hollandais Pieter Cramer en 1877, sous le nom initial de Papilio amelia.
-Synonymie
-Papilio amelia Cramer, 1777 - protonyme
-Taxinomie
-Il existe 2 sous-espèces
-Eunica amelia amelia (Cramer, 1777) [1]
-Eunica amelia erroneata (Oberthür, 1916)
-Synonymie pour cette sous-espèce
-Eunica amelia var. concolor (Zikán, 1937)
-Nom vernaculaire
- Eunica amelia  se nomme Amelia Purplewing en anglais.
 </t>
         </is>
       </c>
@@ -549,10 +553,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio amelia Cramer, 1777 - protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe 2 sous-espèces
+Eunica amelia amelia (Cramer, 1777) 
+Eunica amelia erroneata (Oberthür, 1916)
+Synonymie pour cette sous-espèce
+Eunica amelia var. concolor (Zikán, 1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica amelia  se nomme Amelia Purplewing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica amelia présente un dessus ocre avec les ailes antérieures barrées trois taches blanches formant une bande blanche.
 Le revers est de couleur bleu violet clair avec aux ailes postérieure un double gros ocelle noir dont un est pupillé proche de l'apex et un double gros ocelle noir proche de l'angle anal.
@@ -560,93 +680,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Eunica_amelia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica amelia  est présent au Brésil dans le bassin de l'Amazone, Guyane, au Pérou, au Surinam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Eunica_amelia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica amelia  est présent au Brésil dans le bassin de l'Amazone, Guyane, au Pérou, au Surinam[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eunica_amelia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eunica_amelia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
